--- a/pred_ohlcv/54/2019-11-15 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-15 ABT ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>249</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1356</v>
+        <v>222.3043</v>
       </c>
       <c r="G2" t="n">
-        <v>249.65</v>
+        <v>249.6833333333333</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C3" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D3" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E3" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F3" t="n">
-        <v>175.6899</v>
+        <v>2.1356</v>
       </c>
       <c r="G3" t="n">
-        <v>249.6</v>
+        <v>249.65</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C4" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D4" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E4" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F4" t="n">
-        <v>706.5937</v>
+        <v>175.6899</v>
       </c>
       <c r="G4" t="n">
-        <v>249.5</v>
+        <v>249.6</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C5" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D5" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E5" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F5" t="n">
-        <v>1575.6899</v>
+        <v>706.5937</v>
       </c>
       <c r="G5" t="n">
-        <v>249.4</v>
+        <v>249.5</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>248</v>
       </c>
       <c r="F6" t="n">
-        <v>2108.8792</v>
+        <v>1575.6899</v>
       </c>
       <c r="G6" t="n">
         <v>249.4</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C7" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D7" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E7" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F7" t="n">
-        <v>115.2747</v>
+        <v>2108.8792</v>
       </c>
       <c r="G7" t="n">
-        <v>249.2833333333333</v>
+        <v>249.4</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -567,21 +590,24 @@
         <v>247</v>
       </c>
       <c r="C8" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D8" t="n">
         <v>247</v>
       </c>
       <c r="E8" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F8" t="n">
-        <v>1000</v>
+        <v>115.2747</v>
       </c>
       <c r="G8" t="n">
-        <v>249.1333333333333</v>
+        <v>249.2833333333333</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C9" t="n">
         <v>246</v>
       </c>
       <c r="D9" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E9" t="n">
         <v>246</v>
       </c>
       <c r="F9" t="n">
-        <v>125.9748</v>
+        <v>1000</v>
       </c>
       <c r="G9" t="n">
-        <v>248.9666666666667</v>
+        <v>249.1333333333333</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,12 +657,15 @@
         <v>246</v>
       </c>
       <c r="F10" t="n">
-        <v>107.792</v>
+        <v>125.9748</v>
       </c>
       <c r="G10" t="n">
-        <v>248.8</v>
+        <v>248.9666666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>246</v>
       </c>
       <c r="F11" t="n">
-        <v>5000</v>
+        <v>107.792</v>
       </c>
       <c r="G11" t="n">
-        <v>248.65</v>
+        <v>248.8</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -671,21 +706,24 @@
         <v>246</v>
       </c>
       <c r="C12" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D12" t="n">
         <v>246</v>
       </c>
       <c r="E12" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F12" t="n">
-        <v>855.8099999999999</v>
+        <v>5000</v>
       </c>
       <c r="G12" t="n">
-        <v>248.5666666666667</v>
+        <v>248.65</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C13" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D13" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E13" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F13" t="n">
-        <v>30.9891</v>
+        <v>855.8099999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>248.4166666666667</v>
+        <v>248.5666666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -729,15 +770,18 @@
         <v>245</v>
       </c>
       <c r="E14" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F14" t="n">
-        <v>694.1375</v>
+        <v>30.9891</v>
       </c>
       <c r="G14" t="n">
-        <v>248.2833333333333</v>
+        <v>248.4166666666667</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -755,15 +799,18 @@
         <v>245</v>
       </c>
       <c r="E15" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F15" t="n">
-        <v>92.0438</v>
+        <v>694.1375</v>
       </c>
       <c r="G15" t="n">
-        <v>248.1333333333333</v>
+        <v>248.2833333333333</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C16" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D16" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E16" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F16" t="n">
-        <v>299.714</v>
+        <v>92.0438</v>
       </c>
       <c r="G16" t="n">
-        <v>248.0333333333333</v>
+        <v>248.1333333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C17" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D17" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E17" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F17" t="n">
-        <v>1400</v>
+        <v>299.714</v>
       </c>
       <c r="G17" t="n">
-        <v>247.9166666666667</v>
+        <v>248.0333333333333</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C18" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D18" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E18" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F18" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="G18" t="n">
-        <v>247.8333333333333</v>
+        <v>247.9166666666667</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C19" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D19" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E19" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F19" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G19" t="n">
-        <v>247.7666666666667</v>
+        <v>247.8333333333333</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>245</v>
       </c>
       <c r="F20" t="n">
-        <v>2900.5298</v>
+        <v>250</v>
       </c>
       <c r="G20" t="n">
-        <v>247.6666666666667</v>
+        <v>247.7666666666667</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C21" t="n">
         <v>245</v>
       </c>
       <c r="D21" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E21" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F21" t="n">
-        <v>7973.9556</v>
+        <v>2900.5298</v>
       </c>
       <c r="G21" t="n">
-        <v>247.6333333333333</v>
+        <v>247.6666666666667</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C22" t="n">
         <v>245</v>
       </c>
       <c r="D22" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E22" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F22" t="n">
-        <v>286.166</v>
+        <v>7973.9556</v>
       </c>
       <c r="G22" t="n">
-        <v>247.55</v>
+        <v>247.6333333333333</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C23" t="n">
         <v>245</v>
@@ -963,15 +1031,18 @@
         <v>245</v>
       </c>
       <c r="E23" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F23" t="n">
-        <v>216.177</v>
+        <v>286.166</v>
       </c>
       <c r="G23" t="n">
-        <v>247.4666666666667</v>
+        <v>247.55</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,7 +1051,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C24" t="n">
         <v>245</v>
@@ -989,15 +1060,18 @@
         <v>245</v>
       </c>
       <c r="E24" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F24" t="n">
-        <v>500</v>
+        <v>216.177</v>
       </c>
       <c r="G24" t="n">
-        <v>247.35</v>
+        <v>247.4666666666667</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1080,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" t="n">
         <v>245</v>
@@ -1015,15 +1089,18 @@
         <v>245</v>
       </c>
       <c r="E25" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F25" t="n">
-        <v>137.6</v>
+        <v>500</v>
       </c>
       <c r="G25" t="n">
-        <v>247.1833333333333</v>
+        <v>247.35</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D26" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E26" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F26" t="n">
-        <v>1400</v>
+        <v>137.6</v>
       </c>
       <c r="G26" t="n">
-        <v>247.0333333333333</v>
+        <v>247.1833333333333</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1061,21 +1141,24 @@
         <v>246</v>
       </c>
       <c r="C27" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D27" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E27" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F27" t="n">
-        <v>346.9685</v>
+        <v>1400</v>
       </c>
       <c r="G27" t="n">
-        <v>247.05</v>
+        <v>247.0333333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C28" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D28" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E28" t="n">
         <v>244</v>
       </c>
       <c r="F28" t="n">
-        <v>231.647</v>
+        <v>346.9685</v>
       </c>
       <c r="G28" t="n">
-        <v>246.9666666666667</v>
+        <v>247.05</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>244</v>
       </c>
       <c r="F29" t="n">
-        <v>3169.9921</v>
+        <v>231.647</v>
       </c>
       <c r="G29" t="n">
         <v>246.9666666666667</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C30" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D30" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E30" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F30" t="n">
-        <v>350.566</v>
+        <v>3169.9921</v>
       </c>
       <c r="G30" t="n">
-        <v>246.8833333333333</v>
+        <v>246.9666666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C31" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D31" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E31" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F31" t="n">
-        <v>287.55</v>
+        <v>350.566</v>
       </c>
       <c r="G31" t="n">
-        <v>246.7833333333333</v>
+        <v>246.8833333333333</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,21 +1286,24 @@
         <v>244</v>
       </c>
       <c r="C32" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D32" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E32" t="n">
         <v>244</v>
       </c>
       <c r="F32" t="n">
-        <v>819.39</v>
+        <v>287.55</v>
       </c>
       <c r="G32" t="n">
         <v>246.7833333333333</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,7 +1312,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C33" t="n">
         <v>245</v>
@@ -1223,15 +1321,18 @@
         <v>245</v>
       </c>
       <c r="E33" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F33" t="n">
-        <v>146.15</v>
+        <v>819.39</v>
       </c>
       <c r="G33" t="n">
-        <v>246.7166666666667</v>
+        <v>246.7833333333333</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C34" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D34" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E34" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F34" t="n">
-        <v>46.6422</v>
+        <v>146.15</v>
       </c>
       <c r="G34" t="n">
-        <v>246.65</v>
+        <v>246.7166666666667</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C35" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D35" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E35" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F35" t="n">
-        <v>1015.7397</v>
+        <v>46.6422</v>
       </c>
       <c r="G35" t="n">
-        <v>246.4833333333333</v>
+        <v>246.65</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,12 +1411,15 @@
         <v>243</v>
       </c>
       <c r="F36" t="n">
-        <v>1007.9747</v>
+        <v>1015.7397</v>
       </c>
       <c r="G36" t="n">
-        <v>246.3666666666667</v>
+        <v>246.4833333333333</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C37" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D37" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E37" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F37" t="n">
-        <v>293</v>
+        <v>1007.9747</v>
       </c>
       <c r="G37" t="n">
-        <v>246.2666666666667</v>
+        <v>246.3666666666667</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1347,21 +1460,24 @@
         <v>244</v>
       </c>
       <c r="C38" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D38" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E38" t="n">
         <v>244</v>
       </c>
       <c r="F38" t="n">
-        <v>4285.1595</v>
+        <v>293</v>
       </c>
       <c r="G38" t="n">
-        <v>246.1833333333333</v>
+        <v>246.2666666666667</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C39" t="n">
         <v>245</v>
       </c>
       <c r="D39" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E39" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F39" t="n">
-        <v>2557.6776</v>
+        <v>4285.1595</v>
       </c>
       <c r="G39" t="n">
-        <v>246.2333333333333</v>
+        <v>246.1833333333333</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C40" t="n">
         <v>245</v>
       </c>
       <c r="D40" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E40" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F40" t="n">
-        <v>180.1824</v>
+        <v>2557.6776</v>
       </c>
       <c r="G40" t="n">
-        <v>245.9</v>
+        <v>246.2333333333333</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1431,15 +1553,18 @@
         <v>245</v>
       </c>
       <c r="E41" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F41" t="n">
-        <v>1358.6</v>
+        <v>180.1824</v>
       </c>
       <c r="G41" t="n">
-        <v>245.8666666666667</v>
+        <v>245.9</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,10 +1573,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C42" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D42" t="n">
         <v>245</v>
@@ -1460,12 +1585,15 @@
         <v>242</v>
       </c>
       <c r="F42" t="n">
-        <v>4684.5128</v>
+        <v>1358.6</v>
       </c>
       <c r="G42" t="n">
-        <v>245.7833333333333</v>
+        <v>245.8666666666667</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>244</v>
+      </c>
+      <c r="C43" t="n">
         <v>242</v>
       </c>
-      <c r="C43" t="n">
-        <v>243</v>
-      </c>
       <c r="D43" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E43" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F43" t="n">
-        <v>726.2067</v>
+        <v>4684.5128</v>
       </c>
       <c r="G43" t="n">
-        <v>245.6833333333333</v>
+        <v>245.7833333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,10 +1631,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C44" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D44" t="n">
         <v>243</v>
@@ -1512,12 +1643,15 @@
         <v>241</v>
       </c>
       <c r="F44" t="n">
-        <v>1237.9163</v>
+        <v>726.2067</v>
       </c>
       <c r="G44" t="n">
-        <v>245.4166666666667</v>
+        <v>245.6833333333333</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>241</v>
+      </c>
+      <c r="C45" t="n">
         <v>242</v>
-      </c>
-      <c r="C45" t="n">
-        <v>243</v>
       </c>
       <c r="D45" t="n">
         <v>243</v>
       </c>
       <c r="E45" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F45" t="n">
-        <v>2308.0781</v>
+        <v>1237.9163</v>
       </c>
       <c r="G45" t="n">
-        <v>245.5</v>
+        <v>245.4166666666667</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C46" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D46" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E46" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>2308.0781</v>
       </c>
       <c r="G46" t="n">
-        <v>245.5333333333333</v>
+        <v>245.5</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>244</v>
       </c>
       <c r="F47" t="n">
-        <v>2690</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>245.4333333333333</v>
+        <v>245.5333333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C48" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D48" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E48" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F48" t="n">
-        <v>1686.0478</v>
+        <v>2690</v>
       </c>
       <c r="G48" t="n">
-        <v>245.4166666666667</v>
+        <v>245.4333333333333</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C49" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D49" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E49" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F49" t="n">
-        <v>107.5627</v>
+        <v>1686.0478</v>
       </c>
       <c r="G49" t="n">
-        <v>245.25</v>
+        <v>245.4166666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1817,15 @@
         <v>240</v>
       </c>
       <c r="F50" t="n">
-        <v>186.0478</v>
+        <v>107.5627</v>
       </c>
       <c r="G50" t="n">
-        <v>245.1166666666667</v>
+        <v>245.25</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>240</v>
       </c>
       <c r="F51" t="n">
-        <v>313.9522</v>
+        <v>186.0478</v>
       </c>
       <c r="G51" t="n">
-        <v>244.9833333333333</v>
+        <v>245.1166666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C52" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D52" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E52" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F52" t="n">
-        <v>989</v>
+        <v>313.9522</v>
       </c>
       <c r="G52" t="n">
-        <v>244.85</v>
+        <v>244.9833333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1737,21 +1895,24 @@
         <v>239</v>
       </c>
       <c r="C53" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D53" t="n">
         <v>239</v>
       </c>
       <c r="E53" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F53" t="n">
-        <v>567.0337</v>
+        <v>989</v>
       </c>
       <c r="G53" t="n">
-        <v>244.7</v>
+        <v>244.85</v>
       </c>
       <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C54" t="n">
         <v>238</v>
       </c>
       <c r="D54" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E54" t="n">
         <v>238</v>
       </c>
       <c r="F54" t="n">
-        <v>11927.4094</v>
+        <v>567.0337</v>
       </c>
       <c r="G54" t="n">
-        <v>244.5333333333333</v>
+        <v>244.7</v>
       </c>
       <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1789,21 +1953,24 @@
         <v>238</v>
       </c>
       <c r="C55" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D55" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E55" t="n">
         <v>238</v>
       </c>
       <c r="F55" t="n">
-        <v>5025.6702</v>
+        <v>11927.4094</v>
       </c>
       <c r="G55" t="n">
-        <v>244.4833333333333</v>
+        <v>244.5333333333333</v>
       </c>
       <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C56" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D56" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E56" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F56" t="n">
-        <v>120.5702</v>
+        <v>5025.6702</v>
       </c>
       <c r="G56" t="n">
-        <v>244.3666666666667</v>
+        <v>244.4833333333333</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>241</v>
       </c>
       <c r="F57" t="n">
-        <v>4731.2559</v>
+        <v>120.5702</v>
       </c>
       <c r="G57" t="n">
-        <v>244.25</v>
+        <v>244.3666666666667</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C58" t="n">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D58" t="n">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E58" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F58" t="n">
-        <v>2818.9606</v>
+        <v>4731.2559</v>
       </c>
       <c r="G58" t="n">
-        <v>244.3333333333333</v>
+        <v>244.25</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C59" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D59" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E59" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F59" t="n">
-        <v>469.4754591836735</v>
+        <v>2818.9606</v>
       </c>
       <c r="G59" t="n">
-        <v>244.2166666666667</v>
+        <v>244.3333333333333</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C60" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D60" t="n">
         <v>245</v>
       </c>
       <c r="E60" t="n">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F60" t="n">
-        <v>231.154732244898</v>
+        <v>469.4754591836735</v>
       </c>
       <c r="G60" t="n">
-        <v>244.15</v>
+        <v>244.2166666666667</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1945,21 +2127,24 @@
         <v>244</v>
       </c>
       <c r="C61" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D61" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E61" t="n">
         <v>244</v>
       </c>
       <c r="F61" t="n">
-        <v>1400</v>
+        <v>231.154732244898</v>
       </c>
       <c r="G61" t="n">
-        <v>244.0666666666667</v>
+        <v>244.15</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C62" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D62" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E62" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F62" t="n">
-        <v>231.1547</v>
+        <v>1400</v>
       </c>
       <c r="G62" t="n">
-        <v>243.95</v>
+        <v>244.0666666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C63" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D63" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E63" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F63" t="n">
-        <v>49.8533</v>
+        <v>231.1547</v>
       </c>
       <c r="G63" t="n">
-        <v>243.9</v>
+        <v>243.95</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C64" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D64" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E64" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F64" t="n">
-        <v>48</v>
+        <v>49.8533</v>
       </c>
       <c r="G64" t="n">
-        <v>243.9166666666667</v>
+        <v>243.9</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C65" t="n">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D65" t="n">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E65" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F65" t="n">
-        <v>902</v>
+        <v>48</v>
       </c>
       <c r="G65" t="n">
         <v>243.9166666666667</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,7 +2269,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C66" t="n">
         <v>248</v>
@@ -2081,15 +2278,18 @@
         <v>248</v>
       </c>
       <c r="E66" t="n">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F66" t="n">
-        <v>816.383</v>
+        <v>902</v>
       </c>
       <c r="G66" t="n">
         <v>243.9166666666667</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>248</v>
       </c>
       <c r="F67" t="n">
-        <v>3046.2322</v>
+        <v>816.383</v>
       </c>
       <c r="G67" t="n">
-        <v>243.9333333333333</v>
+        <v>243.9166666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2127,21 +2330,24 @@
         <v>248</v>
       </c>
       <c r="C68" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D68" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E68" t="n">
         <v>248</v>
       </c>
       <c r="F68" t="n">
-        <v>6670</v>
+        <v>3046.2322</v>
       </c>
       <c r="G68" t="n">
-        <v>243.9833333333333</v>
+        <v>243.9333333333333</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>248</v>
+      </c>
+      <c r="C69" t="n">
         <v>249</v>
       </c>
-      <c r="C69" t="n">
-        <v>254</v>
-      </c>
       <c r="D69" t="n">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E69" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F69" t="n">
-        <v>3998</v>
+        <v>6670</v>
       </c>
       <c r="G69" t="n">
-        <v>244.1166666666667</v>
+        <v>243.9833333333333</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C70" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D70" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E70" t="n">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>3998</v>
       </c>
       <c r="G70" t="n">
-        <v>244.2666666666667</v>
+        <v>244.1166666666667</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>255</v>
       </c>
       <c r="F71" t="n">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>244.4166666666667</v>
+        <v>244.2666666666667</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,25 +2443,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C72" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D72" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E72" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F72" t="n">
-        <v>2257.2296</v>
+        <v>300</v>
       </c>
       <c r="G72" t="n">
-        <v>244.6333333333333</v>
+        <v>244.4166666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2254,7 +2472,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C73" t="n">
         <v>257</v>
@@ -2263,16 +2481,19 @@
         <v>257</v>
       </c>
       <c r="E73" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F73" t="n">
-        <v>429.7443</v>
+        <v>2257.2296</v>
       </c>
       <c r="G73" t="n">
-        <v>244.8333333333333</v>
+        <v>244.6333333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2280,25 +2501,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C74" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D74" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E74" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F74" t="n">
-        <v>1711.7099</v>
+        <v>429.7443</v>
       </c>
       <c r="G74" t="n">
-        <v>245.0166666666667</v>
+        <v>244.8333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2309,21 +2533,24 @@
         <v>256</v>
       </c>
       <c r="C75" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D75" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E75" t="n">
         <v>256</v>
       </c>
       <c r="F75" t="n">
-        <v>1300.454</v>
+        <v>1711.7099</v>
       </c>
       <c r="G75" t="n">
-        <v>245.2166666666667</v>
+        <v>245.0166666666667</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,25 +2559,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>256</v>
+      </c>
+      <c r="C76" t="n">
         <v>257</v>
       </c>
-      <c r="C76" t="n">
-        <v>258</v>
-      </c>
       <c r="D76" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E76" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F76" t="n">
-        <v>2198.0099</v>
+        <v>1300.454</v>
       </c>
       <c r="G76" t="n">
-        <v>245.4166666666667</v>
+        <v>245.2166666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>257</v>
+      </c>
+      <c r="C77" t="n">
         <v>258</v>
       </c>
-      <c r="C77" t="n">
-        <v>259</v>
-      </c>
       <c r="D77" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E77" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F77" t="n">
-        <v>438</v>
+        <v>2198.0099</v>
       </c>
       <c r="G77" t="n">
-        <v>245.65</v>
+        <v>245.4166666666667</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>258</v>
+      </c>
+      <c r="C78" t="n">
         <v>259</v>
       </c>
-      <c r="C78" t="n">
-        <v>260</v>
-      </c>
       <c r="D78" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E78" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F78" t="n">
-        <v>452.203</v>
+        <v>438</v>
       </c>
       <c r="G78" t="n">
-        <v>245.8833333333333</v>
+        <v>245.65</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,7 +2646,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C79" t="n">
         <v>260</v>
@@ -2419,15 +2655,18 @@
         <v>260</v>
       </c>
       <c r="E79" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F79" t="n">
-        <v>3652</v>
+        <v>452.203</v>
       </c>
       <c r="G79" t="n">
-        <v>246.1333333333333</v>
+        <v>245.8833333333333</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2439,21 +2678,24 @@
         <v>260</v>
       </c>
       <c r="C80" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D80" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E80" t="n">
         <v>260</v>
       </c>
       <c r="F80" t="n">
-        <v>2812.0023</v>
+        <v>3652</v>
       </c>
       <c r="G80" t="n">
-        <v>246.4166666666667</v>
+        <v>246.1333333333333</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C81" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D81" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E81" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>2812.0023</v>
       </c>
       <c r="G81" t="n">
-        <v>246.7166666666667</v>
+        <v>246.4166666666667</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2745,15 @@
         <v>263</v>
       </c>
       <c r="F82" t="n">
-        <v>127</v>
+        <v>1000</v>
       </c>
       <c r="G82" t="n">
-        <v>247.0166666666667</v>
+        <v>246.7166666666667</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C83" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D83" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E83" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F83" t="n">
-        <v>5006.4435</v>
+        <v>127</v>
       </c>
       <c r="G83" t="n">
-        <v>247.35</v>
+        <v>247.0166666666667</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>264</v>
+      </c>
+      <c r="C84" t="n">
         <v>265</v>
-      </c>
-      <c r="C84" t="n">
-        <v>262</v>
       </c>
       <c r="D84" t="n">
         <v>265</v>
       </c>
       <c r="E84" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F84" t="n">
-        <v>4080.1769</v>
+        <v>5006.4435</v>
       </c>
       <c r="G84" t="n">
-        <v>247.6333333333333</v>
+        <v>247.35</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>265</v>
+      </c>
+      <c r="C85" t="n">
         <v>262</v>
       </c>
-      <c r="C85" t="n">
-        <v>260</v>
-      </c>
       <c r="D85" t="n">
+        <v>265</v>
+      </c>
+      <c r="E85" t="n">
         <v>262</v>
       </c>
-      <c r="E85" t="n">
-        <v>260</v>
-      </c>
       <c r="F85" t="n">
-        <v>5165.5299</v>
+        <v>4080.1769</v>
       </c>
       <c r="G85" t="n">
-        <v>247.8833333333333</v>
+        <v>247.6333333333333</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C86" t="n">
         <v>260</v>
       </c>
       <c r="D86" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E86" t="n">
         <v>260</v>
       </c>
       <c r="F86" t="n">
-        <v>4649.4033</v>
+        <v>5165.5299</v>
       </c>
       <c r="G86" t="n">
-        <v>248.1166666666667</v>
+        <v>247.8833333333333</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C87" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D87" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E87" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F87" t="n">
-        <v>471.0641</v>
+        <v>4649.4033</v>
       </c>
       <c r="G87" t="n">
-        <v>248.35</v>
+        <v>248.1166666666667</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C88" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D88" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E88" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F88" t="n">
-        <v>661.1477</v>
+        <v>471.0641</v>
       </c>
       <c r="G88" t="n">
-        <v>248.6833333333333</v>
+        <v>248.35</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C89" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D89" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E89" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F89" t="n">
-        <v>240.031</v>
+        <v>661.1477</v>
       </c>
       <c r="G89" t="n">
-        <v>248.9666666666667</v>
+        <v>248.6833333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C90" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D90" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E90" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F90" t="n">
-        <v>8388.2505</v>
+        <v>240.031</v>
       </c>
       <c r="G90" t="n">
-        <v>249.2333333333333</v>
+        <v>248.9666666666667</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C91" t="n">
         <v>259</v>
       </c>
       <c r="D91" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E91" t="n">
         <v>258</v>
       </c>
       <c r="F91" t="n">
-        <v>500</v>
+        <v>8388.2505</v>
       </c>
       <c r="G91" t="n">
-        <v>249.4833333333333</v>
+        <v>249.2333333333333</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C92" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D92" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E92" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F92" t="n">
-        <v>304.2737</v>
+        <v>500</v>
       </c>
       <c r="G92" t="n">
-        <v>249.6833333333333</v>
+        <v>249.4833333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C93" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E93" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F93" t="n">
-        <v>2859.69140625</v>
+        <v>304.2737</v>
       </c>
       <c r="G93" t="n">
-        <v>249.8666666666667</v>
+        <v>249.6833333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C94" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D94" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E94" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F94" t="n">
-        <v>500</v>
+        <v>2859.69140625</v>
       </c>
       <c r="G94" t="n">
-        <v>250.0166666666667</v>
+        <v>249.8666666666667</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>255</v>
       </c>
       <c r="F95" t="n">
-        <v>272.0172</v>
+        <v>500</v>
       </c>
       <c r="G95" t="n">
-        <v>250.2166666666667</v>
+        <v>250.0166666666667</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C96" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D96" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E96" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F96" t="n">
-        <v>1207.65</v>
+        <v>272.0172</v>
       </c>
       <c r="G96" t="n">
-        <v>250.35</v>
+        <v>250.2166666666667</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C97" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D97" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E97" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F97" t="n">
-        <v>73.18380000000001</v>
+        <v>1207.65</v>
       </c>
       <c r="G97" t="n">
-        <v>250.45</v>
+        <v>250.35</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C98" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D98" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E98" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F98" t="n">
-        <v>273.0909090909091</v>
+        <v>73.18380000000001</v>
       </c>
       <c r="G98" t="n">
-        <v>250.5833333333333</v>
+        <v>250.45</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C99" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D99" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E99" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F99" t="n">
-        <v>261.681</v>
+        <v>273.0909090909091</v>
       </c>
       <c r="G99" t="n">
-        <v>250.7833333333333</v>
+        <v>250.5833333333333</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C100" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D100" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E100" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F100" t="n">
-        <v>200</v>
+        <v>261.681</v>
       </c>
       <c r="G100" t="n">
-        <v>250.8833333333333</v>
+        <v>250.7833333333333</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C101" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D101" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E101" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G101" t="n">
-        <v>251.05</v>
+        <v>250.8833333333333</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3011,21 +3316,24 @@
         <v>255</v>
       </c>
       <c r="C102" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D102" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E102" t="n">
         <v>255</v>
       </c>
       <c r="F102" t="n">
-        <v>404</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>251.3</v>
+        <v>251.05</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>255</v>
+      </c>
+      <c r="C103" t="n">
         <v>257</v>
       </c>
-      <c r="C103" t="n">
-        <v>258</v>
-      </c>
       <c r="D103" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E103" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F103" t="n">
-        <v>1629.747</v>
+        <v>404</v>
       </c>
       <c r="G103" t="n">
-        <v>251.55</v>
+        <v>251.3</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,7 +3371,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C104" t="n">
         <v>258</v>
@@ -3069,15 +3380,18 @@
         <v>258</v>
       </c>
       <c r="E104" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F104" t="n">
-        <v>1464</v>
+        <v>1629.747</v>
       </c>
       <c r="G104" t="n">
-        <v>251.8166666666667</v>
+        <v>251.55</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3089,21 +3403,24 @@
         <v>258</v>
       </c>
       <c r="C105" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D105" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E105" t="n">
         <v>258</v>
       </c>
       <c r="F105" t="n">
-        <v>250</v>
+        <v>1464</v>
       </c>
       <c r="G105" t="n">
-        <v>252.0833333333333</v>
+        <v>251.8166666666667</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>258</v>
+      </c>
+      <c r="C106" t="n">
         <v>259</v>
       </c>
-      <c r="C106" t="n">
-        <v>260</v>
-      </c>
       <c r="D106" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E106" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F106" t="n">
-        <v>6108.4606</v>
+        <v>250</v>
       </c>
       <c r="G106" t="n">
-        <v>252.35</v>
+        <v>252.0833333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>259</v>
+      </c>
+      <c r="C107" t="n">
         <v>260</v>
       </c>
-      <c r="C107" t="n">
-        <v>261</v>
-      </c>
       <c r="D107" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E107" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F107" t="n">
-        <v>5588.4606</v>
+        <v>6108.4606</v>
       </c>
       <c r="G107" t="n">
-        <v>252.6333333333333</v>
+        <v>252.35</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3167,21 +3490,24 @@
         <v>260</v>
       </c>
       <c r="C108" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D108" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E108" t="n">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>5588.4606</v>
       </c>
       <c r="G108" t="n">
-        <v>252.95</v>
+        <v>252.6333333333333</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>260</v>
       </c>
       <c r="F109" t="n">
-        <v>267</v>
+        <v>2</v>
       </c>
       <c r="G109" t="n">
-        <v>253.2833333333333</v>
+        <v>252.95</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3219,21 +3548,24 @@
         <v>260</v>
       </c>
       <c r="C110" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D110" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E110" t="n">
         <v>260</v>
       </c>
       <c r="F110" t="n">
-        <v>750</v>
+        <v>267</v>
       </c>
       <c r="G110" t="n">
-        <v>253.6333333333333</v>
+        <v>253.2833333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,7 +3574,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C111" t="n">
         <v>261</v>
@@ -3251,15 +3583,18 @@
         <v>261</v>
       </c>
       <c r="E111" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F111" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G111" t="n">
-        <v>253.9833333333333</v>
+        <v>253.6333333333333</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>261</v>
       </c>
       <c r="F112" t="n">
-        <v>1068.882</v>
+        <v>500</v>
       </c>
       <c r="G112" t="n">
-        <v>254.35</v>
+        <v>253.9833333333333</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,532 +3644,15 @@
         <v>261</v>
       </c>
       <c r="F113" t="n">
-        <v>783.373</v>
+        <v>1068.882</v>
       </c>
       <c r="G113" t="n">
-        <v>254.7333333333333</v>
+        <v>254.35</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>261</v>
-      </c>
-      <c r="C114" t="n">
-        <v>261</v>
-      </c>
-      <c r="D114" t="n">
-        <v>261</v>
-      </c>
-      <c r="E114" t="n">
-        <v>261</v>
-      </c>
-      <c r="F114" t="n">
-        <v>1815.267</v>
-      </c>
-      <c r="G114" t="n">
-        <v>255.1166666666667</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>260</v>
-      </c>
-      <c r="C115" t="n">
-        <v>259</v>
-      </c>
-      <c r="D115" t="n">
-        <v>260</v>
-      </c>
-      <c r="E115" t="n">
-        <v>259</v>
-      </c>
-      <c r="F115" t="n">
-        <v>3710.8057</v>
-      </c>
-      <c r="G115" t="n">
-        <v>255.4333333333333</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>259</v>
-      </c>
-      <c r="C116" t="n">
-        <v>259</v>
-      </c>
-      <c r="D116" t="n">
-        <v>259</v>
-      </c>
-      <c r="E116" t="n">
-        <v>259</v>
-      </c>
-      <c r="F116" t="n">
-        <v>342.5339</v>
-      </c>
-      <c r="G116" t="n">
-        <v>255.7333333333333</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>259</v>
-      </c>
-      <c r="C117" t="n">
-        <v>259</v>
-      </c>
-      <c r="D117" t="n">
-        <v>259</v>
-      </c>
-      <c r="E117" t="n">
-        <v>259</v>
-      </c>
-      <c r="F117" t="n">
-        <v>315.3684</v>
-      </c>
-      <c r="G117" t="n">
-        <v>256.0333333333334</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>261</v>
-      </c>
-      <c r="C118" t="n">
-        <v>261</v>
-      </c>
-      <c r="D118" t="n">
-        <v>261</v>
-      </c>
-      <c r="E118" t="n">
-        <v>261</v>
-      </c>
-      <c r="F118" t="n">
-        <v>345.8299</v>
-      </c>
-      <c r="G118" t="n">
-        <v>256.3166666666667</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>262</v>
-      </c>
-      <c r="C119" t="n">
-        <v>262</v>
-      </c>
-      <c r="D119" t="n">
-        <v>262</v>
-      </c>
-      <c r="E119" t="n">
-        <v>262</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1207.7973</v>
-      </c>
-      <c r="G119" t="n">
-        <v>256.6666666666667</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>260</v>
-      </c>
-      <c r="C120" t="n">
-        <v>259</v>
-      </c>
-      <c r="D120" t="n">
-        <v>260</v>
-      </c>
-      <c r="E120" t="n">
-        <v>259</v>
-      </c>
-      <c r="F120" t="n">
-        <v>3491.317</v>
-      </c>
-      <c r="G120" t="n">
-        <v>256.9</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>259</v>
-      </c>
-      <c r="C121" t="n">
-        <v>259</v>
-      </c>
-      <c r="D121" t="n">
-        <v>259</v>
-      </c>
-      <c r="E121" t="n">
-        <v>259</v>
-      </c>
-      <c r="F121" t="n">
-        <v>114.1756</v>
-      </c>
-      <c r="G121" t="n">
-        <v>257.15</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>263</v>
-      </c>
-      <c r="C122" t="n">
-        <v>263</v>
-      </c>
-      <c r="D122" t="n">
-        <v>264</v>
-      </c>
-      <c r="E122" t="n">
-        <v>263</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1592.418</v>
-      </c>
-      <c r="G122" t="n">
-        <v>257.5</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>262</v>
-      </c>
-      <c r="C123" t="n">
-        <v>264</v>
-      </c>
-      <c r="D123" t="n">
-        <v>265</v>
-      </c>
-      <c r="E123" t="n">
-        <v>262</v>
-      </c>
-      <c r="F123" t="n">
-        <v>2768.12</v>
-      </c>
-      <c r="G123" t="n">
-        <v>257.85</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>262</v>
-      </c>
-      <c r="C124" t="n">
-        <v>262</v>
-      </c>
-      <c r="D124" t="n">
-        <v>262</v>
-      </c>
-      <c r="E124" t="n">
-        <v>262</v>
-      </c>
-      <c r="F124" t="n">
-        <v>85.703</v>
-      </c>
-      <c r="G124" t="n">
-        <v>258.1166666666667</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>264</v>
-      </c>
-      <c r="C125" t="n">
-        <v>264</v>
-      </c>
-      <c r="D125" t="n">
-        <v>264</v>
-      </c>
-      <c r="E125" t="n">
-        <v>264</v>
-      </c>
-      <c r="F125" t="n">
-        <v>2.1254</v>
-      </c>
-      <c r="G125" t="n">
-        <v>258.3833333333333</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>262</v>
-      </c>
-      <c r="C126" t="n">
-        <v>262</v>
-      </c>
-      <c r="D126" t="n">
-        <v>262</v>
-      </c>
-      <c r="E126" t="n">
-        <v>262</v>
-      </c>
-      <c r="F126" t="n">
-        <v>83.5776</v>
-      </c>
-      <c r="G126" t="n">
-        <v>258.6166666666667</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>263</v>
-      </c>
-      <c r="C127" t="n">
-        <v>263</v>
-      </c>
-      <c r="D127" t="n">
-        <v>263</v>
-      </c>
-      <c r="E127" t="n">
-        <v>263</v>
-      </c>
-      <c r="F127" t="n">
-        <v>2.1254</v>
-      </c>
-      <c r="G127" t="n">
-        <v>258.8666666666667</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>262</v>
-      </c>
-      <c r="C128" t="n">
-        <v>262</v>
-      </c>
-      <c r="D128" t="n">
-        <v>262</v>
-      </c>
-      <c r="E128" t="n">
-        <v>262</v>
-      </c>
-      <c r="F128" t="n">
-        <v>117.839</v>
-      </c>
-      <c r="G128" t="n">
-        <v>259.0833333333333</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>261</v>
-      </c>
-      <c r="C129" t="n">
-        <v>261</v>
-      </c>
-      <c r="D129" t="n">
-        <v>261</v>
-      </c>
-      <c r="E129" t="n">
-        <v>261</v>
-      </c>
-      <c r="F129" t="n">
-        <v>117.839</v>
-      </c>
-      <c r="G129" t="n">
-        <v>259.2</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>261</v>
-      </c>
-      <c r="C130" t="n">
-        <v>261</v>
-      </c>
-      <c r="D130" t="n">
-        <v>261</v>
-      </c>
-      <c r="E130" t="n">
-        <v>261</v>
-      </c>
-      <c r="F130" t="n">
-        <v>117.839</v>
-      </c>
-      <c r="G130" t="n">
-        <v>259.3</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>259</v>
-      </c>
-      <c r="C131" t="n">
-        <v>258</v>
-      </c>
-      <c r="D131" t="n">
-        <v>259</v>
-      </c>
-      <c r="E131" t="n">
-        <v>258</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1185.9683</v>
-      </c>
-      <c r="G131" t="n">
-        <v>259.35</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>258</v>
-      </c>
-      <c r="C132" t="n">
-        <v>258</v>
-      </c>
-      <c r="D132" t="n">
-        <v>258</v>
-      </c>
-      <c r="E132" t="n">
-        <v>258</v>
-      </c>
-      <c r="F132" t="n">
-        <v>42.6291</v>
-      </c>
-      <c r="G132" t="n">
-        <v>259.3666666666667</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>261</v>
-      </c>
-      <c r="C133" t="n">
-        <v>261</v>
-      </c>
-      <c r="D133" t="n">
-        <v>261</v>
-      </c>
-      <c r="E133" t="n">
-        <v>261</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1.9338</v>
-      </c>
-      <c r="G133" t="n">
-        <v>259.4333333333333</v>
-      </c>
-      <c r="H133" t="n">
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
